--- a/ja/examples/11/fig.xlsx
+++ b/ja/examples/11/fig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0485895C-D0D1-4CBB-A946-BE20E801E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20505" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本構成" sheetId="2" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,6 +164,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -184,7 +188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -234,7 +244,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -295,7 +311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -355,7 +377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="11" name="図 10" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -410,7 +438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -470,7 +504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="13" name="図 12" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -520,7 +560,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -576,7 +622,13 @@
     <xdr:ext cx="767069" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -637,7 +689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="フローチャート : 直接アクセス記憶 33"/>
+        <xdr:cNvPr id="34" name="フローチャート : 直接アクセス記憶 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -700,7 +758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="フローチャート : 直接アクセス記憶 34"/>
+        <xdr:cNvPr id="35" name="フローチャート : 直接アクセス記憶 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -763,7 +827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -813,7 +883,13 @@
     <xdr:ext cx="2080249" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -877,7 +953,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -927,7 +1009,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -977,7 +1065,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1027,7 +1121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1072,7 +1172,13 @@
     <xdr:ext cx="2343077" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1136,7 +1242,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1195,7 +1307,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1256,7 +1374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1316,7 +1440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="49" name="図 48" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1371,7 +1501,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1431,7 +1567,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="52" name="図 51" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1481,7 +1623,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1537,7 +1685,13 @@
     <xdr:ext cx="767069" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1598,7 +1752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="フローチャート : 直接アクセス記憶 54"/>
+        <xdr:cNvPr id="55" name="フローチャート : 直接アクセス記憶 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1661,7 +1821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="フローチャート : 直接アクセス記憶 55"/>
+        <xdr:cNvPr id="56" name="フローチャート : 直接アクセス記憶 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1724,7 +1890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1779,7 +1951,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1829,7 +2007,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1879,7 +2063,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1929,7 +2119,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1974,7 +2170,13 @@
     <xdr:ext cx="2343077" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="テキスト ボックス 97"/>
+        <xdr:cNvPr id="98" name="テキスト ボックス 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2038,7 +2240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2097,7 +2305,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="テキスト ボックス 100"/>
+        <xdr:cNvPr id="101" name="テキスト ボックス 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2158,7 +2372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2218,7 +2438,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="図 104" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="105" name="図 104" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2273,7 +2499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2333,7 +2565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="図 108" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="109" name="図 108" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2383,7 +2621,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2439,7 +2683,13 @@
     <xdr:ext cx="767069" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2500,7 +2750,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="フローチャート : 直接アクセス記憶 111"/>
+        <xdr:cNvPr id="112" name="フローチャート : 直接アクセス記憶 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2563,7 +2819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2618,7 +2880,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直線矢印コネクタ 121"/>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2668,7 +2936,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+        <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2718,7 +2992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvPr id="128" name="正方形/長方形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2777,7 +3057,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2838,7 +3124,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+        <xdr:cNvPr id="130" name="正方形/長方形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2898,7 +3190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="図 130" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="131" name="図 130" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2953,7 +3251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3013,7 +3317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="図 132" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="133" name="図 132" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3063,7 +3373,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3119,7 +3435,13 @@
     <xdr:ext cx="1689693" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3176,7 +3498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvPr id="138" name="正方形/長方形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3231,7 +3559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="直線矢印コネクタ 143"/>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3281,7 +3615,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3326,7 +3666,13 @@
     <xdr:ext cx="2080249" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="テキスト ボックス 148"/>
+        <xdr:cNvPr id="149" name="テキスト ボックス 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3390,7 +3736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+        <xdr:cNvPr id="150" name="正方形/長方形 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3449,7 +3801,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3510,7 +3868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3570,7 +3934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="図 152" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="153" name="図 152" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3625,7 +3995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="正方形/長方形 153"/>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3685,7 +4061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="155" name="図 154" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3735,7 +4117,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3791,7 +4179,13 @@
     <xdr:ext cx="1689693" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3848,7 +4242,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="正方形/長方形 157"/>
+        <xdr:cNvPr id="158" name="正方形/長方形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3903,7 +4303,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="163" name="直線矢印コネクタ 162"/>
+        <xdr:cNvPr id="163" name="直線矢印コネクタ 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3953,7 +4359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3998,7 +4410,13 @@
     <xdr:ext cx="2343077" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="テキスト ボックス 167"/>
+        <xdr:cNvPr id="168" name="テキスト ボックス 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4067,7 +4485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4123,7 +4547,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4179,7 +4609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4235,7 +4671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4285,7 +4727,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4346,7 +4794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート : 複数書類 4"/>
+        <xdr:cNvPr id="5" name="フローチャート : 複数書類 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4426,7 +4880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート : 複数書類 5"/>
+        <xdr:cNvPr id="6" name="フローチャート : 複数書類 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4498,7 +4958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4594,7 +5060,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
           <a:endCxn id="8" idx="3"/>
@@ -4645,7 +5117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4705,7 +5183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="17" name="図 16" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4760,7 +5244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4820,7 +5310,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="19" name="図 18" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4875,7 +5371,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -4925,7 +5427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート : 複数書類 31"/>
+        <xdr:cNvPr id="32" name="フローチャート : 複数書類 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5017,7 +5525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート : 複数書類 32"/>
+        <xdr:cNvPr id="33" name="フローチャート : 複数書類 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5089,7 +5603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5189,7 +5709,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5245,7 +5771,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="1"/>
           <a:endCxn id="34" idx="3"/>
@@ -5296,7 +5828,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -5346,7 +5884,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5406,7 +5950,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5466,7 +6016,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="45" name="図 44" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5521,7 +6077,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="46" name="図 45" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5576,7 +6138,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5626,7 +6194,13 @@
     <xdr:ext cx="813428" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5687,7 +6261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5727,11 +6307,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
+            <a:t>(IBM</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>WebSphere MQ</a:t>
+            <a:t> MQ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -5762,7 +6342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5830,7 +6416,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>WebSphere MQ</a:t>
+            <a:t>IBM MQ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -5861,7 +6447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5917,7 +6509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="フローチャート : 複数書類 71"/>
+        <xdr:cNvPr id="72" name="フローチャート : 複数書類 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5997,7 +6595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="フローチャート : 複数書類 72"/>
+        <xdr:cNvPr id="73" name="フローチャート : 複数書類 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6069,7 +6673,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6213,7 +6823,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="72" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -6263,7 +6879,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6311,7 +6933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="フローチャート : 書類 86"/>
+        <xdr:cNvPr id="87" name="フローチャート : 書類 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6421,7 +7049,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6469,7 +7103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="フリーフォーム 90"/>
+        <xdr:cNvPr id="91" name="フリーフォーム 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6569,7 +7209,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="フリーフォーム 91"/>
+        <xdr:cNvPr id="92" name="フリーフォーム 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6669,7 +7315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="フリーフォーム 92"/>
+        <xdr:cNvPr id="93" name="フリーフォーム 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6769,7 +7421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="フリーフォーム 93"/>
+        <xdr:cNvPr id="94" name="フリーフォーム 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6869,7 +7527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6925,7 +7589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6989,7 +7659,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7053,7 +7729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7117,7 +7799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7180,7 +7868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="フローチャート : 書類 96"/>
+        <xdr:cNvPr id="97" name="フローチャート : 書類 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7475,7 +8169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7523,7 +8223,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7573,7 +8279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7628,7 +8340,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線矢印コネクタ 108"/>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7676,7 +8394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7739,7 +8463,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="3"/>
           <a:endCxn id="118" idx="1"/>
@@ -7785,7 +8515,13 @@
     <xdr:ext cx="1429559" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7844,7 +8580,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7905,7 +8647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7965,7 +8713,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="65" name="図 64" descr="C:\Users\TIS303995\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\GR82N41I\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8015,7 +8769,13 @@
     <xdr:ext cx="767069" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8071,7 +8831,13 @@
     <xdr:ext cx="1689693" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8123,7 +8889,13 @@
     <xdr:ext cx="3406588" cy="447943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8214,7 +8986,13 @@
     <xdr:ext cx="764633" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8264,7 +9042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8306,7 +9084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8339,9 +9117,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8374,6 +9169,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8549,12 +9361,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN84" sqref="AN84"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8591,15 +9401,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BU28" sqref="BU28"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
